--- a/biology/Botanique/Euphorbia_milii/Euphorbia_milii.xlsx
+++ b/biology/Botanique/Euphorbia_milii/Euphorbia_milii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La couronne d'épines encore appelée couronne du Christ ou épine du Christ (en raison des épines, mais aussi des fleurs rouges évoquant des gouttes de sang) (Euphorbia milii) est une espèce d'arbuste épineux vivace de la famille des Euphorbiacées, qui peut atteindre 1,5m. Elle est originaire de Madagascar. Sa localité d'origine n'est pas connue avec précision, mais elle provient probablement de la région de Maevatanana, dans les montagnes de Firingalava.
 Dans les pays tempérés, il est utilisé comme plante d'ornement, en intérieur. Le vrai Euphobia milii var. milii est probablement rare en culture. La plupart des plantes cultivées sont des hybrides.
@@ -519,7 +531,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Euphorbia milii var. hislopii aux tiges plus épaisses (4-5 cm de diamètre) et aux épines plus courtes, aux feuilles de 10-12 cm de long et aux bractées plus grandes.
 Euphorbia milii var. splendens, l'épine du Christ, variété au port semi rampant
@@ -552,7 +566,9 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Euphorbia 'Kuentzii' aux cyathes roses et aux feuilles allongées
 Euphorbia 'Syraya' aux fleurs géantes</t>
@@ -583,7 +599,9 @@
           <t>Maladies et insectes nuisibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La pourriture par excès d'humidité, les aleurodes, les limaces, les araignées rouges, l'échinothrips americanus.
 </t>
@@ -614,7 +632,9 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Forte toxicité du latex (sève), troubles digestifs en cas d'ingestion.
 </t>
